--- a/authentication/server/src/main/resources/templates/template-menu.xlsx
+++ b/authentication/server/src/main/resources/templates/template-menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\goudong-java\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFC9B9-587D-4C39-A6A4-672F275DA1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3253D18C-723F-4C9C-B27C-35A983E2168F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
@@ -34,51 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>请求方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜单备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>权限标识</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上级菜单权限标识</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,12 +81,155 @@
     <t>路由或接口地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>导入说明</t>
+  </si>
+  <si>
+    <t>sys:user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+  </si>
+  <si>
+    <t>/sys/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"icon": "el-icon-s-tools", "title": "系统管理"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sys/user/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"icon": "el-icon-user", "title": "用户管理"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:user:add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+  </si>
+  <si>
+    <t>/api/gateway/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>示例（导入前需删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>菜单标识</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注意：表头携带“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”表示该列必传。
+1、菜单标识：同一应用下菜单标识唯一，例如系统管理使用”sys“,系统管理&gt;用户管理使用”sys:user“；
+2、上级菜单标识：上级菜单的权限标识。如果上级权限标识为空，表明是一级菜单；如果不为空，那么上级菜单要么存在，要么应该在本行上面；
+3、菜单名称：菜单的名称；
+4、菜单类型：菜单类型分为菜单、按钮和接口，其中菜单和按钮是前端页面权限，接口是用于后端接口权限（注意：按钮也可以填写接口的地址和请求方式，同时满足前端权限和后端接口权限限制）。
+5、路由或接口地址：菜单的前端组件路由或接口的请求地址，请求地址使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ant 风格的路由表达式的模式匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；
+6、请求方式：只有填写接口地址时才需要填写请求方式；
+7、菜单元数据：菜单类型的菜单元数据，是一个json字符串，包含title,icon等信息，例如："{"icon": "el-icon-s-tools", "title": "系统管理"}"；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级菜单标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +261,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,15 +336,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,51 +672,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CEC48-5F9C-4F04-A393-FBBF3E21069C}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576" xr:uid="{8009B86C-AF73-4B93-BB29-E602D0DDED50}">
+      <formula1>"菜单,按钮,接口"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{1C015A6C-2BC7-419E-8D55-8F1ECE9B3EEF}">
+      <formula1>"GET,POST,PUT,DELETE,HEAD,PATCH,OPTIONS,TRACE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
